--- a/apps/load_data/2016/10/PLMOVMAE.xlsx
+++ b/apps/load_data/2016/10/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2016\HHY1016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2016\HHY1016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B7B2D98-BAB0-4857-B450-BB1521A45FCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C884585B-EE0B-4696-8ADB-1491AAE5D64C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$239</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$239</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9667" uniqueCount="2402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9655" uniqueCount="2401">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6443,9 +6444,6 @@
   </si>
   <si>
     <t>08771747</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047    108507    1085071081    296920    2969201082    159880    1598802001         0     386002006     43400     434002026    193323    1933232028      3600      36002086      2500      25002180       250       2502182       100       100</t>
@@ -7234,7 +7232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -8074,10 +8072,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC247" sqref="AC247"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -44828,12 +44828,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2140</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>103</v>
       </c>
@@ -44898,10 +44893,10 @@
         <v>111</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2141</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2142</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>114</v>
@@ -44910,7 +44905,7 @@
         <v>102</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>118</v>
@@ -44931,13 +44926,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2144</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2145</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2146</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -44972,13 +44967,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2147</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2148</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2149</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -45010,12 +45005,7 @@
       <c r="AB210" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2140</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -45062,7 +45052,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="BB210" s="1">
         <v>10</v>
@@ -45080,10 +45070,10 @@
         <v>111</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2151</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2152</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>114</v>
@@ -45095,13 +45085,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>118</v>
@@ -45125,13 +45115,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1772</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45166,13 +45156,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2157</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2158</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2159</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -45204,12 +45194,7 @@
       <c r="AB211" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2140</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -45256,7 +45241,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="BB211" s="1">
         <v>10</v>
@@ -45277,10 +45262,10 @@
         <v>111</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2161</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2162</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>114</v>
@@ -45292,13 +45277,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>118</v>
@@ -45322,13 +45307,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2165</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2166</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2167</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -45363,13 +45348,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2168</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2169</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2170</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -45398,12 +45383,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2140</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -45453,7 +45433,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="BB212" s="1">
         <v>10</v>
@@ -45471,7 +45451,7 @@
         <v>111</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>170</v>
@@ -45483,7 +45463,7 @@
         <v>102</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>118</v>
@@ -45501,13 +45481,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -45542,13 +45522,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2176</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2177</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2178</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -45577,12 +45557,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2140</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -45632,7 +45607,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="BB213" s="1">
         <v>10</v>
@@ -45650,7 +45625,7 @@
         <v>111</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>783</v>
@@ -45662,7 +45637,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>118</v>
@@ -45683,10 +45658,10 @@
         <v>619</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2182</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2183</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -45721,13 +45696,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2184</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2185</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2186</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -45756,12 +45731,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2140</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -45811,7 +45781,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="BB214" s="1">
         <v>10</v>
@@ -45832,7 +45802,7 @@
         <v>831</v>
       </c>
       <c r="BI214" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>114</v>
@@ -45841,7 +45811,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>118</v>
@@ -45859,13 +45829,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2190</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2190</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -45900,13 +45870,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2193</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2194</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -45941,12 +45911,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2140</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -45993,7 +45958,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="BB215" s="1">
         <v>10</v>
@@ -46002,7 +45967,7 @@
         <v>16</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>109</v>
@@ -46014,10 +45979,10 @@
         <v>111</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2197</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2198</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>114</v>
@@ -46029,13 +45994,13 @@
         <v>115</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>118</v>
@@ -46053,13 +46018,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2202</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2203</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46094,13 +46059,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2204</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2205</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2206</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -46129,12 +46094,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2140</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -46184,7 +46144,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="BB216" s="1">
         <v>10</v>
@@ -46202,10 +46162,10 @@
         <v>111</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2208</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2209</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>114</v>
@@ -46214,7 +46174,7 @@
         <v>102</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>118</v>
@@ -46232,13 +46192,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2211</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2212</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2213</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -46273,13 +46233,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2214</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2215</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2216</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -46308,12 +46268,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2140</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -46363,7 +46318,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="BB217" s="1">
         <v>10</v>
@@ -46381,10 +46336,10 @@
         <v>111</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2218</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2219</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>114</v>
@@ -46396,7 +46351,7 @@
         <v>147</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>118</v>
@@ -46414,13 +46369,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2221</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2222</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2223</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -46455,13 +46410,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2224</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2225</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2226</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -46490,12 +46445,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2140</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -46542,7 +46492,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="BB218" s="1">
         <v>10</v>
@@ -46551,7 +46501,7 @@
         <v>16</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>109</v>
@@ -46563,10 +46513,10 @@
         <v>111</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2229</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2230</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>114</v>
@@ -46578,13 +46528,13 @@
         <v>194</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>118</v>
@@ -46602,13 +46552,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>407</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -46643,13 +46593,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2236</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2237</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -46681,12 +46631,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2140</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -46736,7 +46681,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="BB219" s="1">
         <v>10</v>
@@ -46757,7 +46702,7 @@
         <v>111</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>170</v>
@@ -46769,7 +46714,7 @@
         <v>102</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>118</v>
@@ -46790,13 +46735,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2242</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2243</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -46831,13 +46776,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2245</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2246</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -46866,12 +46811,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2140</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -46918,7 +46858,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="BB220" s="1">
         <v>10</v>
@@ -46939,10 +46879,10 @@
         <v>111</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2248</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2249</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>114</v>
@@ -46954,13 +46894,13 @@
         <v>115</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>118</v>
@@ -46978,13 +46918,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1606</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47019,13 +46959,13 @@
         <v>88</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2255</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2256</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -47076,7 +47016,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -47121,13 +47061,13 @@
         <v>111</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>118</v>
@@ -47151,10 +47091,10 @@
         <v>2034</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2260</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47189,13 +47129,13 @@
         <v>88</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2262</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2263</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2264</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -47249,7 +47189,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -47294,13 +47234,13 @@
         <v>111</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>118</v>
@@ -47321,13 +47261,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -47362,13 +47302,13 @@
         <v>88</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2271</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2272</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -47422,7 +47362,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -47467,13 +47407,13 @@
         <v>111</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>118</v>
@@ -47494,13 +47434,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2275</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2276</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2277</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -47535,13 +47475,13 @@
         <v>88</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2279</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2280</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -47637,13 +47577,13 @@
         <v>111</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>118</v>
@@ -47664,10 +47604,10 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>186</v>
@@ -47705,13 +47645,13 @@
         <v>88</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2286</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -47765,7 +47705,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -47810,13 +47750,13 @@
         <v>111</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>118</v>
@@ -47840,13 +47780,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -47881,13 +47821,13 @@
         <v>88</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2293</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -47938,7 +47878,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -47983,13 +47923,13 @@
         <v>111</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>118</v>
@@ -48010,13 +47950,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2297</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2212</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2298</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48051,10 +47991,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2299</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2300</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
@@ -48120,7 +48060,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -48138,7 +48078,7 @@
         <v>208</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -48152,7 +48092,7 @@
         <v>86</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>88</v>
@@ -48167,16 +48107,16 @@
         <v>91</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2304</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2305</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -48257,7 +48197,7 @@
         <v>208</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -48292,13 +48232,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2306</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2307</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2308</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -48379,7 +48319,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BB229" s="1">
         <v>10</v>
@@ -48397,10 +48337,10 @@
         <v>111</v>
       </c>
       <c r="BH229" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2310</v>
-      </c>
-      <c r="BI229" s="1" t="s">
-        <v>2311</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>114</v>
@@ -48412,7 +48352,7 @@
         <v>147</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>118</v>
@@ -48430,13 +48370,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>407</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -48471,13 +48411,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2315</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2316</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2317</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -48555,7 +48495,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BB230" s="1">
         <v>10</v>
@@ -48573,10 +48513,10 @@
         <v>111</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2319</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2320</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>114</v>
@@ -48588,13 +48528,13 @@
         <v>194</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>118</v>
@@ -48612,13 +48552,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2323</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2325</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -48653,13 +48593,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2326</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2327</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2328</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -48737,7 +48677,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BB231" s="1">
         <v>10</v>
@@ -48755,7 +48695,7 @@
         <v>111</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>1721</v>
@@ -48770,13 +48710,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>118</v>
@@ -48794,13 +48734,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2334</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2335</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -48835,13 +48775,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2336</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2337</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2338</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -48922,7 +48862,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BB232" s="1">
         <v>10</v>
@@ -48940,7 +48880,7 @@
         <v>111</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1815</v>
@@ -48952,7 +48892,7 @@
         <v>102</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>118</v>
@@ -48970,13 +48910,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>785</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49011,13 +48951,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -49053,7 +48993,7 @@
         <v>103</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1710</v>
@@ -49098,7 +49038,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BB233" s="1">
         <v>10</v>
@@ -49116,7 +49056,7 @@
         <v>111</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>114</v>
@@ -49125,7 +49065,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>118</v>
@@ -49146,10 +49086,10 @@
         <v>1415</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2352</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -49184,13 +49124,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -49271,7 +49211,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BB234" s="1">
         <v>10</v>
@@ -49289,7 +49229,7 @@
         <v>111</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1864</v>
@@ -49301,7 +49241,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>118</v>
@@ -49325,7 +49265,7 @@
         <v>851</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -49360,13 +49300,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2360</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2361</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2362</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -49405,7 +49345,7 @@
         <v>595</v>
       </c>
       <c r="AH235" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="AI235" s="1" t="s">
         <v>98</v>
@@ -49447,7 +49387,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BB235" s="1">
         <v>10</v>
@@ -49465,10 +49405,10 @@
         <v>111</v>
       </c>
       <c r="BH235" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>2365</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>2366</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>114</v>
@@ -49477,7 +49417,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>118</v>
@@ -49495,13 +49435,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2369</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2370</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -49536,13 +49476,13 @@
         <v>88</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2372</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2373</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -49584,7 +49524,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -49623,13 +49563,13 @@
         <v>111</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>118</v>
@@ -49647,13 +49587,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>288</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -49688,13 +49628,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2379</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2380</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2381</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -49733,7 +49673,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>103</v>
@@ -49787,7 +49727,7 @@
         <v>16</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>109</v>
@@ -49799,10 +49739,10 @@
         <v>111</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2384</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>114</v>
@@ -49814,13 +49754,13 @@
         <v>194</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>118</v>
@@ -49841,7 +49781,7 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>278</v>
@@ -49861,7 +49801,7 @@
         <v>86</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>88</v>
@@ -49876,7 +49816,7 @@
         <v>91</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>93</v>
@@ -49885,10 +49825,10 @@
         <v>238</v>
       </c>
       <c r="L238" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="M238" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="M238" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="N238" s="1" t="s">
         <v>240</v>
@@ -49918,7 +49858,7 @@
         <v>42582</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>103</v>
@@ -49969,10 +49909,10 @@
         <v>241</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2392</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>114</v>
@@ -50046,16 +49986,16 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="M239" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="N239" s="1" t="s">
         <v>2394</v>
-      </c>
-      <c r="M239" s="1" t="s">
-        <v>2389</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2395</v>
       </c>
       <c r="Q239" s="3">
         <v>17060</v>
@@ -50088,7 +50028,7 @@
         <v>42628</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>103</v>
@@ -50139,16 +50079,16 @@
         <v>98</v>
       </c>
       <c r="AZ239" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BD239" s="1" t="s">
         <v>206</v>
       </c>
       <c r="BH239" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="BI239" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="BI239" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>114</v>
@@ -50157,7 +50097,7 @@
         <v>102</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>118</v>
@@ -50181,10 +50121,11 @@
         <v>122</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF239" xr:uid="{434505B4-3B49-43AE-A09A-46D8C5490EFB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>